--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="18195" windowHeight="8760"/>
+    <workbookView xWindow="7600" yWindow="0" windowWidth="18000" windowHeight="12580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
   <si>
     <t>Master-slave RKA</t>
   </si>
@@ -80,12 +85,51 @@
   <si>
     <t># of processors = 25</t>
   </si>
+  <si>
+    <t>Parallel Time code (Tp a )</t>
+  </si>
+  <si>
+    <t>Processing (tp b)</t>
+  </si>
+  <si>
+    <t>regroupText2.py Frankenstein X 20 40</t>
+  </si>
+  <si>
+    <t># processes</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t># chunks</t>
+  </si>
+  <si>
+    <t>mpiRK frankenstein</t>
+  </si>
+  <si>
+    <t>pat len</t>
+  </si>
+  <si>
+    <t>MasterSlave</t>
+  </si>
+  <si>
+    <t>time - parallel</t>
+  </si>
+  <si>
+    <t>preprocessing</t>
+  </si>
+  <si>
+    <t>Masterslave</t>
+  </si>
+  <si>
+    <t>at K = 4 processes, mpiRK works better than master/slave</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +141,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -119,14 +179,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="17">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -136,7 +228,17 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -160,11 +262,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -189,46 +294,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>81</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -240,50 +345,51 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.8144410957718291</c:v>
+                  <c:v>1.81444109577183</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2115689629625117</c:v>
+                  <c:v>3.211568962962512</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9291218034948345</c:v>
+                  <c:v>4.929121803494834</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.9175444501791468</c:v>
+                  <c:v>5.917544450179147</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.5062530260731615</c:v>
+                  <c:v>7.50625302607316</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.4828435994274081</c:v>
+                  <c:v>8.482843599427408</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.2115214916819301</c:v>
+                  <c:v>9.21152149168193</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>16.1574231331332</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.305551217226636</c:v>
+                  <c:v>19.30555121722664</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>19.85781326368113</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19.190601142888823</c:v>
+                  <c:v>19.19060114288882</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.253030529014051</c:v>
+                  <c:v>19.25303052901405</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.087193757736689</c:v>
+                  <c:v>18.08719375773669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.457008232972713</c:v>
+                  <c:v>13.45700823297271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -309,46 +415,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>81</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -360,50 +466,51 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.90722054788591455</c:v>
+                  <c:v>0.907220547885915</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0705229876541706</c:v>
+                  <c:v>1.070522987654171</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2322804508737086</c:v>
+                  <c:v>1.232280450873709</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1835088900358293</c:v>
+                  <c:v>1.183508890035829</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2510421710121935</c:v>
+                  <c:v>1.251042171012193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2118347999182011</c:v>
+                  <c:v>1.211834799918201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1514401864602413</c:v>
+                  <c:v>1.151440186460241</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.009838945820825</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.77222204868906541</c:v>
+                  <c:v>0.772222048689065</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5516059239911425</c:v>
+                  <c:v>0.551605923991142</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.39164492128344536</c:v>
+                  <c:v>0.391644921283445</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.30082860201584455</c:v>
+                  <c:v>0.300828602015845</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.22329868836711961</c:v>
+                  <c:v>0.22329868836712</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.13457008232972714</c:v>
+                  <c:v>0.134570082329727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -429,46 +536,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>81</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -480,7 +587,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.8122284000924673</c:v>
+                  <c:v>1.812228400092467</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4.137807149253681</c:v>
@@ -489,17 +596,18 @@
                   <c:v>4.731018661972703</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.270028304003767</c:v>
+                  <c:v>5.270028304003766</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.2804022479267765</c:v>
+                  <c:v>6.280402247926776</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0428922362446844</c:v>
+                  <c:v>8.042892236244684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -525,46 +633,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>81</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -576,37 +684,47 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.90611420004623366</c:v>
+                  <c:v>0.906114200046234</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.379269049751227</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1827546654931758</c:v>
+                  <c:v>1.182754665493176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0540056608007533</c:v>
+                  <c:v>1.054005660800753</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0467337079877961</c:v>
+                  <c:v>1.046733707987796</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1489846051778121</c:v>
+                  <c:v>1.148984605177812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="105521920"/>
-        <c:axId val="105523456"/>
+        <c:smooth val="0"/>
+        <c:axId val="403986616"/>
+        <c:axId val="403992280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105521920"/>
+        <c:axId val="403986616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -625,26 +743,32 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105523456"/>
+        <c:crossAx val="403992280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105523456"/>
+        <c:axId val="403992280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105521920"/>
+        <c:crossAx val="403986616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -652,8 +776,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -665,7 +792,17 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -685,11 +822,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -714,46 +854,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>81</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -765,7 +905,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>30.520551000000001</c:v>
+                  <c:v>30.520551</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>17.243205</c:v>
@@ -774,41 +914,42 @@
                   <c:v>11.234809</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.3582300000000007</c:v>
+                  <c:v>9.35823</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>7.377548</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.5282049999999998</c:v>
+                  <c:v>6.528205</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0117909999999997</c:v>
+                  <c:v>6.011791</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.427387</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8684880000000001</c:v>
+                  <c:v>2.868488</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2.788713</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8856700000000002</c:v>
+                  <c:v>2.88567</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.8763130000000001</c:v>
+                  <c:v>2.876313</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.0617100000000002</c:v>
+                  <c:v>3.06171</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.1151600000000004</c:v>
+                  <c:v>4.11516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -834,46 +975,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>81</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -885,60 +1026,71 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>55.377741999999998</c:v>
+                  <c:v>55.377742</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.377741999999998</c:v>
+                  <c:v>55.377742</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.377741999999998</c:v>
+                  <c:v>55.377742</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.377741999999998</c:v>
+                  <c:v>55.377742</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.377741999999998</c:v>
+                  <c:v>55.377742</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.377741999999998</c:v>
+                  <c:v>55.377742</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.377741999999998</c:v>
+                  <c:v>55.377742</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55.377741999999998</c:v>
+                  <c:v>55.377742</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55.377741999999998</c:v>
+                  <c:v>55.377742</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55.377741999999998</c:v>
+                  <c:v>55.377742</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55.377741999999998</c:v>
+                  <c:v>55.377742</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>55.377741999999998</c:v>
+                  <c:v>55.377742</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>55.377741999999998</c:v>
+                  <c:v>55.377742</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>55.377741999999998</c:v>
+                  <c:v>55.377742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="83702912"/>
-        <c:axId val="83704832"/>
+        <c:smooth val="0"/>
+        <c:axId val="404055160"/>
+        <c:axId val="404060696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83702912"/>
+        <c:axId val="404055160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -957,26 +1109,32 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83704832"/>
+        <c:crossAx val="404060696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83704832"/>
+        <c:axId val="404060696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83702912"/>
+        <c:crossAx val="404055160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -984,12 +1142,15 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -997,7 +1158,17 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1021,11 +1192,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
@@ -1050,28 +1224,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1083,32 +1257,33 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>189.37070600000001</c:v>
+                  <c:v>189.370706</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>128.65976800000001</c:v>
+                  <c:v>128.659768</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>112.393824</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90.572889000000004</c:v>
+                  <c:v>90.572889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76.175839999999994</c:v>
+                  <c:v>76.17583999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>68.521719000000004</c:v>
+                  <c:v>68.521719</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60.106879999999997</c:v>
+                  <c:v>60.10688</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55.377741999999998</c:v>
+                  <c:v>55.377742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1134,28 +1309,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1167,10 +1342,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.7463740000000003</c:v>
+                  <c:v>5.746374</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9355260000000003</c:v>
+                  <c:v>4.935526</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4.092384</c:v>
@@ -1179,31 +1354,41 @@
                   <c:v>3.499482</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1534870000000002</c:v>
+                  <c:v>3.153487</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1606190000000001</c:v>
+                  <c:v>3.160619</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9825840000000001</c:v>
+                  <c:v>2.982584</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8684880000000001</c:v>
+                  <c:v>2.868488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="83130624"/>
-        <c:axId val="83161088"/>
+        <c:smooth val="0"/>
+        <c:axId val="404096760"/>
+        <c:axId val="404102520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83130624"/>
+        <c:axId val="404096760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1227,21 +1412,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83161088"/>
+        <c:crossAx val="404102520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83161088"/>
+        <c:axId val="404102520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1261,10 +1450,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83130624"/>
+        <c:crossAx val="404096760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1272,12 +1464,494 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Time to complete constant work as processes,chunks increase</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Master/Slave</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$25:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$M$25:$M$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>mpiRK</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$25:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$25:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="464692552"/>
+        <c:axId val="464660408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="464692552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Processes (= Number of Chunks)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="464660408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="464660408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="464692552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.760723179667617"/>
+          <c:y val="0.384681102362205"/>
+          <c:w val="0.221923241156678"/>
+          <c:h val="0.296791641429437"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>4 Processes</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$D$35:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$35:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="465440040"/>
+        <c:axId val="423172088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="465440040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Chunks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="423172088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="423172088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="465440040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1370,6 +2044,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1662,17 +2401,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="7" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="7" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2273,31 +3012,577 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>410774</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>619621</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>721655</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>1312159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>459929</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>660568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <f>AVERAGE(4.88, 4.77)</f>
+        <v>4.8249999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <f>AVERAGE(5.03, 5.36)</f>
+        <v>5.1950000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <v>7.97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18">
+        <v>64</v>
+      </c>
+      <c r="D18">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19">
+        <v>128</v>
+      </c>
+      <c r="D19">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20">
+        <v>256</v>
+      </c>
+      <c r="D20">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>179</v>
+      </c>
+      <c r="F25">
+        <v>2.96</v>
+      </c>
+      <c r="G25">
+        <v>5.19</v>
+      </c>
+      <c r="I25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <v>20</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <v>6.21</v>
+      </c>
+      <c r="N25">
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>179</v>
+      </c>
+      <c r="F26">
+        <v>2.48</v>
+      </c>
+      <c r="I26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="L26">
+        <v>5</v>
+      </c>
+      <c r="M26">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>179</v>
+      </c>
+      <c r="F27">
+        <v>1.52</v>
+      </c>
+      <c r="G27">
+        <v>5.19</v>
+      </c>
+      <c r="I27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27">
+        <v>8</v>
+      </c>
+      <c r="L27">
+        <v>8</v>
+      </c>
+      <c r="M27">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>16</v>
+      </c>
+      <c r="E28">
+        <v>179</v>
+      </c>
+      <c r="F28">
+        <v>0.77</v>
+      </c>
+      <c r="I28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28">
+        <v>16</v>
+      </c>
+      <c r="L28">
+        <v>16</v>
+      </c>
+      <c r="M28">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>32</v>
+      </c>
+      <c r="F29">
+        <v>0.41</v>
+      </c>
+      <c r="I29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29">
+        <v>32</v>
+      </c>
+      <c r="L29">
+        <v>32</v>
+      </c>
+      <c r="M29">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>64</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I30" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30">
+        <v>64</v>
+      </c>
+      <c r="L30">
+        <v>64</v>
+      </c>
+      <c r="M30">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>128</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>0.16</v>
+      </c>
+      <c r="I31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31">
+        <v>128</v>
+      </c>
+      <c r="L31">
+        <v>128</v>
+      </c>
+      <c r="M31">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>20</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>179</v>
+      </c>
+      <c r="F35">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>16</v>
+      </c>
+      <c r="F38">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>32</v>
+      </c>
+      <c r="F39">
+        <v>4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>64</v>
+      </c>
+      <c r="F40">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>128</v>
+      </c>
+      <c r="F41">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>256</v>
+      </c>
+      <c r="F42">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -4,12 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7600" yWindow="0" windowWidth="18000" windowHeight="12580" activeTab="1"/>
+    <workbookView xWindow="9400" yWindow="0" windowWidth="17900" windowHeight="15560" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="2000chunks" sheetId="3" r:id="rId3"/>
+    <sheet name="4000chunks" sheetId="4" r:id="rId4"/>
+    <sheet name="1000chunks" sheetId="5" r:id="rId5"/>
+    <sheet name="orderMagChunks" sheetId="6" r:id="rId6"/>
+    <sheet name="mpiRK" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="77">
   <si>
     <t>Master-slave RKA</t>
   </si>
@@ -124,12 +128,141 @@
   <si>
     <t>at K = 4 processes, mpiRK works better than master/slave</t>
   </si>
+  <si>
+    <t>increase pat len</t>
+  </si>
+  <si>
+    <t>text len</t>
+  </si>
+  <si>
+    <t>150 words</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>speedup = ts/tp</t>
+  </si>
+  <si>
+    <t>efficiency = speedup/k</t>
+  </si>
+  <si>
+    <t>serial time</t>
+  </si>
+  <si>
+    <t>multipattern2.txt</t>
+  </si>
+  <si>
+    <t>english_50MB</t>
+  </si>
+  <si>
+    <t>50MB</t>
+  </si>
+  <si>
+    <t>parallel time (s)</t>
+  </si>
+  <si>
+    <t>50 words</t>
+  </si>
+  <si>
+    <t>multipattern50.txt</t>
+  </si>
+  <si>
+    <t>what's the bottleneck in my code? why does timing saturate at ~ 8s?</t>
+  </si>
+  <si>
+    <t>20MB</t>
+  </si>
+  <si>
+    <t>english_smaller</t>
+  </si>
+  <si>
+    <t>why is the peak at/around 20? probs b/c of 2000 chunks.</t>
+  </si>
+  <si>
+    <t>figure out why last line, if match, gets matched twice. do on small corpus</t>
+  </si>
+  <si>
+    <t>increase K for m = 20, 2000 chunks</t>
+  </si>
+  <si>
+    <t>english_50MBHashed_2000chunks</t>
+  </si>
+  <si>
+    <t>english_smallerHashed_2000chunks</t>
+  </si>
+  <si>
+    <t>increase K for m = 20, 4000 chunks</t>
+  </si>
+  <si>
+    <t>time to preprocess</t>
+  </si>
+  <si>
+    <t>english_smaller, 4000 chunks</t>
+  </si>
+  <si>
+    <t>the corpus had the same line twice</t>
+  </si>
+  <si>
+    <t>english_50MBHashed_4000chunks</t>
+  </si>
+  <si>
+    <t>english_smallerHashed_4000chunks</t>
+  </si>
+  <si>
+    <t>increase K for m = 20, 1000 chunks</t>
+  </si>
+  <si>
+    <t>english_smallerHashed_1000chunks</t>
+  </si>
+  <si>
+    <t>50MB (7.8m words)</t>
+  </si>
+  <si>
+    <t>100 chunks</t>
+  </si>
+  <si>
+    <t>1000 chunks</t>
+  </si>
+  <si>
+    <t>10k chunks</t>
+  </si>
+  <si>
+    <t>regroup/MR time</t>
+  </si>
+  <si>
+    <t>increase K for m = 20, 100 chunks</t>
+  </si>
+  <si>
+    <t>english_smallerHashed_100chunks</t>
+  </si>
+  <si>
+    <t>increase K for m = 20, 10k chunks</t>
+  </si>
+  <si>
+    <t>increase K for m = 20, K chunks</t>
+  </si>
+  <si>
+    <t>english_smallerHashed_Kchunks</t>
+  </si>
+  <si>
+    <t>20MB (3.6mil words)</t>
+  </si>
+  <si>
+    <t>10chunks - 212.5 to preprocess</t>
+  </si>
+  <si>
+    <t>5 - 203.7</t>
+  </si>
+  <si>
+    <t>20 -196.6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +294,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -179,7 +327,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -197,12 +345,75 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="77">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -211,6 +422,36 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -219,6 +460,36 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -261,7 +532,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -716,11 +986,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="403986616"/>
-        <c:axId val="403992280"/>
+        <c:axId val="212588680"/>
+        <c:axId val="187218840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="403986616"/>
+        <c:axId val="212588680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -742,14 +1012,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="403992280"/>
+        <c:crossAx val="187218840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -757,7 +1026,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="403992280"/>
+        <c:axId val="187218840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -768,7 +1037,411 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="403986616"/>
+        <c:crossAx val="212588680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Run Time For Master/Slave Implementation with 20MB</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Textlen, 150 word Patlen</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1000 Pieces</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1000chunks'!$A$10:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1000chunks'!$C$10:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>127.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2000 Pieces</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1000chunks'!$A$10:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2000chunks'!$C$47:$C$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>127.606</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4000 Pieces</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1000chunks'!$A$10:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4000chunks'!$C$47:$C$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>127.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="187184808"/>
+        <c:axId val="187145976"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="187184808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="187145976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="187145976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time </a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="187184808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -784,7 +1457,1053 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Efficiency for Master/Slave</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> For  20MB Textlen, 150 word Patlen</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1k Pieces, Patlen 150 words</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4000chunks'!$A$47:$A$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1000chunks'!$E$10:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.800692259282568</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.879875518672199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.908461263834345</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.790248447204969</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6159767610748</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.476516853932584</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.382072072072072</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.306117293233083</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.255867269984917</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2k Pieces, Patlen 150 words</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4000chunks'!$A$47:$A$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2000chunks'!$E$47:$E$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.787392442361644</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.887283645354998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.916417365924845</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.767695599022005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6006456241033</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.465166666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.372133333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.294867204695525</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.241994219653179</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="134855192"/>
+        <c:axId val="120418024"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="134855192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="120418024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="120418024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="134855192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Master/Slave Run Time for 20MB Textlen, 150 word Patlen</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>100 Pieces</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>orderMagChunks!$A$47:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>orderMagChunks!$C$15:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>133.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1000 Pieces</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>orderMagChunks!$A$47:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>orderMagChunks!$C$31:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>127.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>10,000 Pieces</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>orderMagChunks!$A$47:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>orderMagChunks!$C$47:$C$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>131.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="141472152"/>
+        <c:axId val="141445912"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="141472152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="141445912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="141445912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="141472152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Master/slave</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Efficiency with 20MB Textlen, 150 word Patlen</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>100 Pieces</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>orderMagChunks!$A$47:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>orderMagChunks!$E$15:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.72990977443609</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.811553251964554</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.785166612746684</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.680962401795735</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.512988797294441</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.385719961856325</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.298151105651106</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1000 Pieces</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>orderMagChunks!$A$47:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>orderMagChunks!$E$31:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.800692259282568</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.879875518672199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.908461263834345</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.790248447204969</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6159767610748</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.476516853932584</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.382072072072072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>10,000 Pieces</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>orderMagChunks!$A$47:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>orderMagChunks!$E$47:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.779855896852484</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89086813377231</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.924676258992806</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.795851393188854</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.597536029753603</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.476743323442136</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.380547742413027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="140751608"/>
+        <c:axId val="140755240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="140751608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="140755240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="140755240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="140751608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -821,7 +2540,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1082,11 +2800,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="404055160"/>
-        <c:axId val="404060696"/>
+        <c:axId val="119714520"/>
+        <c:axId val="120499656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="404055160"/>
+        <c:axId val="119714520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1108,14 +2826,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="404060696"/>
+        <c:crossAx val="120499656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1123,7 +2840,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="404060696"/>
+        <c:axId val="120499656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1134,14 +2851,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="404055160"/>
+        <c:crossAx val="119714520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1191,7 +2907,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1380,11 +3095,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="404096760"/>
-        <c:axId val="404102520"/>
+        <c:axId val="134233352"/>
+        <c:axId val="212664648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="404096760"/>
+        <c:axId val="134233352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1411,14 +3126,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="404102520"/>
+        <c:crossAx val="212664648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1426,7 +3140,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="404102520"/>
+        <c:axId val="212664648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1449,21 +3163,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="404096760"/>
+        <c:crossAx val="134233352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1509,7 +3221,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1670,11 +3381,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="464692552"/>
-        <c:axId val="464660408"/>
+        <c:axId val="131552504"/>
+        <c:axId val="211187128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="464692552"/>
+        <c:axId val="131552504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1696,14 +3407,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="464660408"/>
+        <c:crossAx val="211187128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1711,7 +3421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="464660408"/>
+        <c:axId val="211187128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1734,14 +3444,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="464692552"/>
+        <c:crossAx val="131552504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1787,7 +3496,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1883,11 +3591,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="465440040"/>
-        <c:axId val="423172088"/>
+        <c:axId val="211885128"/>
+        <c:axId val="211890616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="465440040"/>
+        <c:axId val="211885128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1909,14 +3617,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="423172088"/>
+        <c:crossAx val="211890616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1924,7 +3631,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="423172088"/>
+        <c:axId val="211890616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1935,16 +3642,1042 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="465440040"/>
+        <c:crossAx val="211885128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Master/slave: Run Time for Textlen 50MB, Patlen 150 words</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>time</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2000chunks'!$A$9:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2000chunks'!$C$9:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>336.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="167113768"/>
+        <c:axId val="188217864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="167113768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="188217864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="188217864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="167113768"/>
+        <c:crossesAt val="1.0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Efficiency for Textlen 20MB, 2000 Pieces</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Patlen 50 words</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2000chunks'!$A$47:$A$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2000chunks'!$E$67:$E$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.795652173913043</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.909801136363636</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.922910662824207</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.788793103448276</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.624269005847953</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.411632390745501</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.261963190184049</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.171658291457286</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.141625207296849</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Patlen 150 words</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2000chunks'!$A$47:$A$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2000chunks'!$E$47:$E$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.787392442361644</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.887283645354998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.916417365924845</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.767695599022005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6006456241033</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.465166666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.372133333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.294867204695525</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.241994219653179</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="188231112"/>
+        <c:axId val="212809128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="188231112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="212809128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="212809128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="188231112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Efficiency for Textlen 50MB, 2000 Pieces</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Patlen 50 words</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2000chunks'!$A$28:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2000chunks'!$E$28:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.827902341803687</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.915986769570011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.938226990400903</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.812121212121212</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.634440626193203</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.479123414071511</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.367610619469027</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.273796086508754</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.211601400827762</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Patlen 150 words</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2000chunks'!$A$28:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2000chunks'!$E$9:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.761936441936442</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.854918688349773</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.894504881450488</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.774589371980676</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.604942463686097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.465833817547937</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.365759908753921</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.298047051989544</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.243770429494489</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="186842648"/>
+        <c:axId val="186848072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="186842648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="186848072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="186848072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="186842648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>time</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2000chunks'!$A$9:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2000chunks'!$C$9:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>336.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="134693000"/>
+        <c:axId val="134605432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="134693000"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="134605432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="134605432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="134693000"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2056,16 +4789,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2100,6 +4833,270 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2404,8 +5401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3012,7 +6009,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -3024,10 +6020,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3035,7 +6031,7 @@
     <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
@@ -3044,6 +6040,9 @@
       <c r="A1" t="s">
         <v>7</v>
       </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
@@ -3052,6 +6051,12 @@
       <c r="B2">
         <v>410774</v>
       </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2">
+        <v>264.45</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -3558,9 +6563,13 @@
         <v>33</v>
       </c>
     </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -3572,13 +6581,3150 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:H76"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="2"/>
+    <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1282.72</v>
+      </c>
+      <c r="C9" s="2">
+        <f>336.7</f>
+        <v>336.7</v>
+      </c>
+      <c r="D9" s="2">
+        <f>B9/C9</f>
+        <v>3.8096822096822098</v>
+      </c>
+      <c r="E9" s="2">
+        <f>D9/A9</f>
+        <v>0.76193644193644194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1282.72</v>
+      </c>
+      <c r="C10" s="2">
+        <f>(150.04)</f>
+        <v>150.04</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ref="D10:D17" si="0">B10/C10</f>
+        <v>8.5491868834977343</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" ref="E10:E17" si="1">D10/A10</f>
+        <v>0.85491868834977347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1282.72</v>
+      </c>
+      <c r="C11" s="2">
+        <v>71.7</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>17.890097629009762</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.89450488145048812</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>40</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1282.72</v>
+      </c>
+      <c r="C12" s="2">
+        <v>41.4</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>30.983574879227056</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.77458937198067646</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>60</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1282.72</v>
+      </c>
+      <c r="C13" s="2">
+        <v>35.340000000000003</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>36.296547821165817</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.60494246368609694</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>80</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1282.72</v>
+      </c>
+      <c r="C14" s="2">
+        <v>34.42</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>37.266705403834976</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.46583381754793718</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>100</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1282.72</v>
+      </c>
+      <c r="C15" s="2">
+        <v>35.07</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>36.575990875392073</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.36575990875392073</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>125</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1282.72</v>
+      </c>
+      <c r="C16" s="2">
+        <v>34.43</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>37.255881498693</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.29804705198954401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2">
+        <v>150</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1282.72</v>
+      </c>
+      <c r="C17" s="2">
+        <v>35.08</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>36.565564424173324</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.24377042949448882</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2">
+        <v>5</v>
+      </c>
+      <c r="B28" s="3">
+        <v>332.32</v>
+      </c>
+      <c r="C28" s="2">
+        <v>80.28</v>
+      </c>
+      <c r="D28" s="2">
+        <f>B28/C28</f>
+        <v>4.1395117090184357</v>
+      </c>
+      <c r="E28" s="2">
+        <f>D28/A28</f>
+        <v>0.82790234180368716</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2">
+        <v>10</v>
+      </c>
+      <c r="B29" s="3">
+        <v>332.32</v>
+      </c>
+      <c r="C29" s="2">
+        <v>36.28</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" ref="D29:D36" si="2">B29/C29</f>
+        <v>9.1598676957001093</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" ref="E29:E36" si="3">D29/A29</f>
+        <v>0.91598676957001091</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2">
+        <v>20</v>
+      </c>
+      <c r="B30" s="3">
+        <v>332.32</v>
+      </c>
+      <c r="C30" s="2">
+        <v>17.71</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="2"/>
+        <v>18.764539808018068</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="3"/>
+        <v>0.9382269904009034</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2">
+        <v>40</v>
+      </c>
+      <c r="B31" s="3">
+        <v>332.32</v>
+      </c>
+      <c r="C31" s="2">
+        <v>10.23</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="2"/>
+        <v>32.484848484848484</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="3"/>
+        <v>0.81212121212121213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="2">
+        <v>60</v>
+      </c>
+      <c r="B32" s="3">
+        <v>332.32</v>
+      </c>
+      <c r="C32" s="2">
+        <v>8.73</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="2"/>
+        <v>38.066437571592211</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="3"/>
+        <v>0.63444062619320352</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
+        <v>80</v>
+      </c>
+      <c r="B33" s="3">
+        <v>332.32</v>
+      </c>
+      <c r="C33" s="2">
+        <v>8.67</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="2"/>
+        <v>38.329873125720873</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="3"/>
+        <v>0.47912341407151093</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
+        <v>100</v>
+      </c>
+      <c r="B34" s="3">
+        <v>332.32</v>
+      </c>
+      <c r="C34" s="2">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="2"/>
+        <v>36.761061946902657</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="3"/>
+        <v>0.36761061946902657</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
+        <v>125</v>
+      </c>
+      <c r="B35" s="3">
+        <v>332.32</v>
+      </c>
+      <c r="C35" s="2">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="2"/>
+        <v>34.224510813594229</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="3"/>
+        <v>0.27379608650875381</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
+        <v>150</v>
+      </c>
+      <c r="B36" s="3">
+        <v>332.32</v>
+      </c>
+      <c r="C36" s="2">
+        <v>10.47</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="2"/>
+        <v>31.740210124164275</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="3"/>
+        <v>0.21160140082776183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2">
+        <v>5</v>
+      </c>
+      <c r="B47" s="3">
+        <v>502.38</v>
+      </c>
+      <c r="C47" s="2">
+        <v>127.60599999999999</v>
+      </c>
+      <c r="D47" s="2">
+        <f>B47/C47</f>
+        <v>3.9369622118082224</v>
+      </c>
+      <c r="E47" s="2">
+        <f>D47/A47</f>
+        <v>0.78739244236164452</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2">
+        <v>10</v>
+      </c>
+      <c r="B48" s="3">
+        <v>502.38</v>
+      </c>
+      <c r="C48" s="2">
+        <v>56.62</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" ref="D48:D55" si="4">B48/C48</f>
+        <v>8.8728364535499828</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" ref="E48:E55" si="5">D48/A48</f>
+        <v>0.88728364535499826</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2">
+        <v>20</v>
+      </c>
+      <c r="B49" s="3">
+        <v>502.38</v>
+      </c>
+      <c r="C49" s="2">
+        <v>27.41</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="4"/>
+        <v>18.328347318496899</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="5"/>
+        <v>0.91641736592484491</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2">
+        <v>40</v>
+      </c>
+      <c r="B50" s="3">
+        <v>502.38</v>
+      </c>
+      <c r="C50" s="2">
+        <v>16.36</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" si="4"/>
+        <v>30.707823960880198</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="5"/>
+        <v>0.7676955990220049</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2">
+        <v>60</v>
+      </c>
+      <c r="B51" s="3">
+        <v>502.38</v>
+      </c>
+      <c r="C51" s="2">
+        <v>13.94</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" si="4"/>
+        <v>36.038737446197992</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="5"/>
+        <v>0.60064562410329991</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2">
+        <v>80</v>
+      </c>
+      <c r="B52" s="3">
+        <v>502.38</v>
+      </c>
+      <c r="C52" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="4"/>
+        <v>37.213333333333331</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="5"/>
+        <v>0.46516666666666662</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>100</v>
+      </c>
+      <c r="B53" s="3">
+        <v>502.38</v>
+      </c>
+      <c r="C53" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="4"/>
+        <v>37.213333333333331</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="5"/>
+        <v>0.37213333333333332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>125</v>
+      </c>
+      <c r="B54" s="3">
+        <v>502.38</v>
+      </c>
+      <c r="C54" s="2">
+        <v>13.63</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="4"/>
+        <v>36.858400586940569</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="5"/>
+        <v>0.29486720469552458</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2">
+        <v>150</v>
+      </c>
+      <c r="B55" s="3">
+        <v>502.38</v>
+      </c>
+      <c r="C55" s="2">
+        <v>13.84</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" si="4"/>
+        <v>36.299132947976879</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="5"/>
+        <v>0.24199421965317919</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="2">
+        <v>5</v>
+      </c>
+      <c r="B67" s="3">
+        <v>128.1</v>
+      </c>
+      <c r="C67" s="2">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="D67" s="2">
+        <f>B67/C67</f>
+        <v>3.9782608695652169</v>
+      </c>
+      <c r="E67" s="2">
+        <f>D67/A67</f>
+        <v>0.79565217391304333</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="2">
+        <v>10</v>
+      </c>
+      <c r="B68" s="3">
+        <v>128.1</v>
+      </c>
+      <c r="C68" s="2">
+        <v>14.08</v>
+      </c>
+      <c r="D68" s="2">
+        <f t="shared" ref="D68:D75" si="6">B68/C68</f>
+        <v>9.0980113636363633</v>
+      </c>
+      <c r="E68" s="2">
+        <f t="shared" ref="E68:E75" si="7">D68/A68</f>
+        <v>0.90980113636363635</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="2">
+        <v>20</v>
+      </c>
+      <c r="B69" s="3">
+        <v>128.1</v>
+      </c>
+      <c r="C69" s="2">
+        <v>6.94</v>
+      </c>
+      <c r="D69" s="2">
+        <f t="shared" si="6"/>
+        <v>18.458213256484147</v>
+      </c>
+      <c r="E69" s="2">
+        <f t="shared" si="7"/>
+        <v>0.92291066282420731</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="2">
+        <v>40</v>
+      </c>
+      <c r="B70" s="3">
+        <v>128.1</v>
+      </c>
+      <c r="C70" s="2">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="D70" s="2">
+        <f t="shared" si="6"/>
+        <v>31.551724137931036</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" si="7"/>
+        <v>0.78879310344827591</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="2">
+        <v>60</v>
+      </c>
+      <c r="B71" s="3">
+        <v>128.1</v>
+      </c>
+      <c r="C71" s="2">
+        <v>3.42</v>
+      </c>
+      <c r="D71" s="2">
+        <f t="shared" si="6"/>
+        <v>37.456140350877192</v>
+      </c>
+      <c r="E71" s="2">
+        <f t="shared" si="7"/>
+        <v>0.6242690058479532</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="2">
+        <v>80</v>
+      </c>
+      <c r="B72" s="3">
+        <v>128.1</v>
+      </c>
+      <c r="C72" s="2">
+        <v>3.89</v>
+      </c>
+      <c r="D72" s="2">
+        <f t="shared" si="6"/>
+        <v>32.930591259640103</v>
+      </c>
+      <c r="E72" s="2">
+        <f t="shared" si="7"/>
+        <v>0.41163239074550129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="2">
+        <v>100</v>
+      </c>
+      <c r="B73" s="3">
+        <v>128.1</v>
+      </c>
+      <c r="C73" s="2">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D73" s="2">
+        <f t="shared" si="6"/>
+        <v>26.196319018404907</v>
+      </c>
+      <c r="E73" s="2">
+        <f t="shared" si="7"/>
+        <v>0.26196319018404907</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="2">
+        <v>125</v>
+      </c>
+      <c r="B74" s="3">
+        <v>128.1</v>
+      </c>
+      <c r="C74" s="2">
+        <v>5.97</v>
+      </c>
+      <c r="D74" s="2">
+        <f t="shared" si="6"/>
+        <v>21.457286432160803</v>
+      </c>
+      <c r="E74" s="2">
+        <f t="shared" si="7"/>
+        <v>0.17165829145728642</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="2">
+        <v>150</v>
+      </c>
+      <c r="B75" s="3">
+        <v>128.1</v>
+      </c>
+      <c r="C75" s="2">
+        <v>6.03</v>
+      </c>
+      <c r="D75" s="2">
+        <f t="shared" si="6"/>
+        <v>21.24378109452736</v>
+      </c>
+      <c r="E75" s="2">
+        <f t="shared" si="7"/>
+        <v>0.14162520729684908</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="2"/>
+    <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>150</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2">
+        <v>35.08</v>
+      </c>
+      <c r="D9" s="2">
+        <f>B9/C9</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <f>D9/A9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>125</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2">
+        <v>34.43</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ref="D10:D17" si="0">B10/C10</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" ref="E10:E17" si="1">D10/A10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>100</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2">
+        <v>35.07</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>80</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2">
+        <v>34.42</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>60</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2">
+        <v>35.340000000000003</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>40</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2">
+        <v>41.4</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2">
+        <v>70.41</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2">
+        <f>(174.7+233.4)/2</f>
+        <v>204.05</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2">
+        <v>395.4</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2">
+        <v>5</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="2">
+        <v>80.28</v>
+      </c>
+      <c r="D28" s="2">
+        <f>B28/C28</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <f>D28/A28</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2">
+        <v>10</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="2">
+        <v>36.28</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" ref="D29:D36" si="2">B29/C29</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" ref="E29:E36" si="3">D29/A29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2">
+        <v>20</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="2">
+        <v>17.71</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2">
+        <v>40</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="2">
+        <v>10.23</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="2">
+        <v>60</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="2">
+        <v>8.73</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
+        <v>80</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="2">
+        <v>8.67</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
+        <v>100</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="2">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
+        <v>125</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="2">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
+        <v>150</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="2">
+        <v>10.47</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2">
+        <v>5</v>
+      </c>
+      <c r="B47" s="3">
+        <v>300</v>
+      </c>
+      <c r="C47" s="2">
+        <v>127.12</v>
+      </c>
+      <c r="D47" s="2">
+        <f>B47/C47</f>
+        <v>2.3599748269351792</v>
+      </c>
+      <c r="E47" s="2">
+        <f>D47/A47</f>
+        <v>0.47199496538703584</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2">
+        <v>10</v>
+      </c>
+      <c r="B48" s="3">
+        <v>300</v>
+      </c>
+      <c r="C48" s="2">
+        <v>57.84</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" ref="D48:D55" si="4">B48/C48</f>
+        <v>5.1867219917012441</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" ref="E48:E55" si="5">D48/A48</f>
+        <v>0.51867219917012441</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2">
+        <v>20</v>
+      </c>
+      <c r="B49" s="3">
+        <v>300</v>
+      </c>
+      <c r="C49" s="2">
+        <v>28.01</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="4"/>
+        <v>10.71046054980364</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="5"/>
+        <v>0.53552302749018199</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2">
+        <v>40</v>
+      </c>
+      <c r="B50" s="3">
+        <v>300</v>
+      </c>
+      <c r="C50" s="2">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" si="4"/>
+        <v>18.633540372670804</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="5"/>
+        <v>0.46583850931677012</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2">
+        <v>60</v>
+      </c>
+      <c r="B51" s="3">
+        <v>300</v>
+      </c>
+      <c r="C51" s="2">
+        <v>13.77</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" si="4"/>
+        <v>21.786492374727668</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="5"/>
+        <v>0.36310820624546114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2">
+        <v>80</v>
+      </c>
+      <c r="B52" s="3">
+        <v>300</v>
+      </c>
+      <c r="C52" s="2">
+        <v>13.35</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="4"/>
+        <v>22.471910112359552</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2808988764044944</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>100</v>
+      </c>
+      <c r="B53" s="3">
+        <v>300</v>
+      </c>
+      <c r="C53" s="2">
+        <v>13.32</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="4"/>
+        <v>22.522522522522522</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="5"/>
+        <v>0.22522522522522523</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>125</v>
+      </c>
+      <c r="B54" s="3">
+        <v>300</v>
+      </c>
+      <c r="C54" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="4"/>
+        <v>22.556390977443609</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="5"/>
+        <v>0.18045112781954886</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2">
+        <v>150</v>
+      </c>
+      <c r="B55" s="3">
+        <v>300</v>
+      </c>
+      <c r="C55" s="2">
+        <v>13.26</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" si="4"/>
+        <v>22.624434389140273</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1508295625942685</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="B57" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="2">
+        <v>5</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="2">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="D67" s="2">
+        <f>B67/C67</f>
+        <v>0</v>
+      </c>
+      <c r="E67" s="2">
+        <f>D67/A67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="2">
+        <v>10</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="2">
+        <v>14.08</v>
+      </c>
+      <c r="D68" s="2">
+        <f t="shared" ref="D68:D75" si="6">B68/C68</f>
+        <v>0</v>
+      </c>
+      <c r="E68" s="2">
+        <f t="shared" ref="E68:E75" si="7">D68/A68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="2">
+        <v>20</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="2">
+        <v>6.94</v>
+      </c>
+      <c r="D69" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E69" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="2">
+        <v>40</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="2">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="D70" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="2">
+        <v>60</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="2">
+        <v>3.42</v>
+      </c>
+      <c r="D71" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="2">
+        <v>80</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="2">
+        <v>3.89</v>
+      </c>
+      <c r="D72" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="2">
+        <v>100</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="2">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D73" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="2">
+        <v>125</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="2">
+        <v>5.97</v>
+      </c>
+      <c r="D74" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="2">
+        <v>150</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="2">
+        <v>6.03</v>
+      </c>
+      <c r="D75" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="2"/>
+    <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3">
+        <v>508.92</v>
+      </c>
+      <c r="C10" s="2">
+        <v>127.12</v>
+      </c>
+      <c r="D10" s="2">
+        <f>B10/C10</f>
+        <v>4.003461296412838</v>
+      </c>
+      <c r="E10" s="2">
+        <f>D10/A10</f>
+        <v>0.8006922592825676</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>508.92</v>
+      </c>
+      <c r="C11" s="2">
+        <v>57.84</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" ref="D11:D18" si="0">B11/C11</f>
+        <v>8.7987551867219906</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" ref="E11:E18" si="1">D11/A11</f>
+        <v>0.87987551867219904</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3">
+        <v>508.92</v>
+      </c>
+      <c r="C12" s="2">
+        <v>28.01</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>18.169225276686898</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.90846126383434489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>40</v>
+      </c>
+      <c r="B13" s="3">
+        <v>508.92</v>
+      </c>
+      <c r="C13" s="2">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>31.609937888198758</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.7902484472049689</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>60</v>
+      </c>
+      <c r="B14" s="3">
+        <v>508.92</v>
+      </c>
+      <c r="C14" s="2">
+        <v>13.77</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>36.958605664488019</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.61597676107480026</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>80</v>
+      </c>
+      <c r="B15" s="3">
+        <v>508.92</v>
+      </c>
+      <c r="C15" s="2">
+        <v>13.35</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>38.121348314606742</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.47651685393258425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>100</v>
+      </c>
+      <c r="B16" s="3">
+        <v>508.92</v>
+      </c>
+      <c r="C16" s="2">
+        <v>13.32</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>38.207207207207205</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.38207207207207206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>125</v>
+      </c>
+      <c r="B17" s="3">
+        <v>508.92</v>
+      </c>
+      <c r="C17" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>38.264661654135338</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.30611729323308273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>150</v>
+      </c>
+      <c r="B18" s="3">
+        <v>508.92</v>
+      </c>
+      <c r="C18" s="2">
+        <v>13.26</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>38.380090497737555</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.25586726998491705</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
+        <v>5</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="2">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="D30" s="2">
+        <f>B30/C30</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <f>D30/A30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2">
+        <v>10</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="2">
+        <v>14.08</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:D38" si="2">B31/C31</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" ref="E31:E38" si="3">D31/A31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
+        <v>20</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="2">
+        <v>6.94</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
+        <v>40</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="2">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
+        <v>60</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="2">
+        <v>3.42</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
+        <v>80</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="2">
+        <v>3.89</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
+        <v>100</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="2">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>125</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="2">
+        <v>5.97</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>150</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2">
+        <v>6.03</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2">
+        <v>213.07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4">
+        <v>219.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15">
+      <c r="A8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="15">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="15">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="15">
+      <c r="A15" s="2">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3">
+        <v>485.39</v>
+      </c>
+      <c r="C15" s="2">
+        <v>133</v>
+      </c>
+      <c r="D15" s="2">
+        <f>B15/C15</f>
+        <v>3.6495488721804512</v>
+      </c>
+      <c r="E15" s="2">
+        <f>D15/A15</f>
+        <v>0.72990977443609029</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15">
+      <c r="A16" s="2">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3">
+        <v>485.39</v>
+      </c>
+      <c r="C16" s="2">
+        <v>59.81</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:D23" si="0">B16/C16</f>
+        <v>8.1155325196455443</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" ref="E16:E23" si="1">D16/A16</f>
+        <v>0.81155325196455441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15">
+      <c r="A17" s="2">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3">
+        <v>485.39</v>
+      </c>
+      <c r="C17" s="2">
+        <v>30.91</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>15.703332254933677</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.78516661274668387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15">
+      <c r="A18" s="2">
+        <v>40</v>
+      </c>
+      <c r="B18" s="3">
+        <v>485.39</v>
+      </c>
+      <c r="C18" s="2">
+        <v>17.82</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>27.238496071829402</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.68096240179573508</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15">
+      <c r="A19" s="2">
+        <v>60</v>
+      </c>
+      <c r="B19" s="3">
+        <v>485.39</v>
+      </c>
+      <c r="C19" s="2">
+        <v>15.77</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>30.779327837666454</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.51298879729444091</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15">
+      <c r="A20" s="2">
+        <v>80</v>
+      </c>
+      <c r="B20" s="3">
+        <v>485.39</v>
+      </c>
+      <c r="C20" s="2">
+        <v>15.73</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>30.857596948506039</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.38571996185632551</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15">
+      <c r="A21" s="2">
+        <v>100</v>
+      </c>
+      <c r="B21" s="3">
+        <v>485.39</v>
+      </c>
+      <c r="C21" s="2">
+        <v>16.28</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>29.815110565110562</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="1"/>
+        <v>0.29815110565110564</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="15">
+      <c r="A24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="15">
+      <c r="A25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15">
+      <c r="A26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="15">
+      <c r="A28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="15">
+      <c r="A31" s="2">
+        <v>5</v>
+      </c>
+      <c r="B31" s="3">
+        <v>508.92</v>
+      </c>
+      <c r="C31" s="2">
+        <v>127.12</v>
+      </c>
+      <c r="D31" s="2">
+        <f>B31/C31</f>
+        <v>4.003461296412838</v>
+      </c>
+      <c r="E31" s="2">
+        <f>D31/A31</f>
+        <v>0.8006922592825676</v>
+      </c>
+      <c r="F31" s="2">
+        <v>479.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15">
+      <c r="A32" s="2">
+        <v>10</v>
+      </c>
+      <c r="B32" s="3">
+        <v>508.92</v>
+      </c>
+      <c r="C32" s="2">
+        <v>57.84</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" ref="D32:D39" si="2">B32/C32</f>
+        <v>8.7987551867219906</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" ref="E32:E39" si="3">D32/A32</f>
+        <v>0.87987551867219904</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15">
+      <c r="A33" s="2">
+        <v>20</v>
+      </c>
+      <c r="B33" s="3">
+        <v>508.92</v>
+      </c>
+      <c r="C33" s="2">
+        <v>28.01</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="2"/>
+        <v>18.169225276686898</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="3"/>
+        <v>0.90846126383434489</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15">
+      <c r="A34" s="2">
+        <v>40</v>
+      </c>
+      <c r="B34" s="3">
+        <v>508.92</v>
+      </c>
+      <c r="C34" s="2">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="2"/>
+        <v>31.609937888198758</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="3"/>
+        <v>0.7902484472049689</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15">
+      <c r="A35" s="2">
+        <v>60</v>
+      </c>
+      <c r="B35" s="3">
+        <v>508.92</v>
+      </c>
+      <c r="C35" s="2">
+        <v>13.77</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="2"/>
+        <v>36.958605664488019</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="3"/>
+        <v>0.61597676107480026</v>
+      </c>
+      <c r="F35" s="3">
+        <v>508.92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15">
+      <c r="A36" s="2">
+        <v>80</v>
+      </c>
+      <c r="B36" s="3">
+        <v>508.92</v>
+      </c>
+      <c r="C36" s="2">
+        <v>13.35</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="2"/>
+        <v>38.121348314606742</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="3"/>
+        <v>0.47651685393258425</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15">
+      <c r="A37" s="2">
+        <v>100</v>
+      </c>
+      <c r="B37" s="3">
+        <v>508.92</v>
+      </c>
+      <c r="C37" s="2">
+        <v>13.32</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="2"/>
+        <v>38.207207207207205</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="3"/>
+        <v>0.38207207207207206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" ht="15">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" ht="15">
+      <c r="A40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" ht="15">
+      <c r="A41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15">
+      <c r="A42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" ht="15">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" ht="15">
+      <c r="A44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" ht="15">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" ht="15">
+      <c r="A47" s="2">
+        <v>5</v>
+      </c>
+      <c r="B47" s="3">
+        <v>514.12</v>
+      </c>
+      <c r="C47" s="2">
+        <v>131.85</v>
+      </c>
+      <c r="D47" s="2">
+        <f>B47/C47</f>
+        <v>3.8992794842624194</v>
+      </c>
+      <c r="E47" s="2">
+        <f>D47/A47</f>
+        <v>0.77985589685248391</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15">
+      <c r="A48" s="2">
+        <v>10</v>
+      </c>
+      <c r="B48" s="3">
+        <v>514.12</v>
+      </c>
+      <c r="C48" s="2">
+        <v>57.71</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" ref="D48:D53" si="4">B48/C48</f>
+        <v>8.9086813377230989</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" ref="E48:E53" si="5">D48/A48</f>
+        <v>0.89086813377230989</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15">
+      <c r="A49" s="2">
+        <v>20</v>
+      </c>
+      <c r="B49" s="3">
+        <v>514.12</v>
+      </c>
+      <c r="C49" s="2">
+        <v>27.8</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="4"/>
+        <v>18.493525179856114</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="5"/>
+        <v>0.9246762589928057</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15">
+      <c r="A50" s="2">
+        <v>40</v>
+      </c>
+      <c r="B50" s="3">
+        <v>514.12</v>
+      </c>
+      <c r="C50" s="2">
+        <v>16.149999999999999</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" si="4"/>
+        <v>31.834055727554183</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="5"/>
+        <v>0.79585139318885456</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15">
+      <c r="A51" s="2">
+        <v>60</v>
+      </c>
+      <c r="B51" s="3">
+        <v>514.12</v>
+      </c>
+      <c r="C51" s="2">
+        <v>14.34</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" si="4"/>
+        <v>35.852161785216182</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="5"/>
+        <v>0.59753602975360309</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15">
+      <c r="A52" s="2">
+        <v>80</v>
+      </c>
+      <c r="B52" s="3">
+        <v>514.12</v>
+      </c>
+      <c r="C52" s="2">
+        <v>13.48</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="4"/>
+        <v>38.139465875370917</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="5"/>
+        <v>0.47674332344213644</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15">
+      <c r="A53" s="2">
+        <v>100</v>
+      </c>
+      <c r="B53" s="3">
+        <v>514.12</v>
+      </c>
+      <c r="C53" s="2">
+        <v>13.51</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="4"/>
+        <v>38.054774241302738</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="5"/>
+        <v>0.38054774241302736</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15">
+      <c r="A4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="15">
+      <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="15">
+      <c r="A8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="15">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2">
+        <v>94.12</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="15">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="15">
+      <c r="A13" s="2">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2">
+        <v>24.28</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="15">
+      <c r="A14" s="2">
+        <v>40</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="15">
+      <c r="A15" s="2">
+        <v>60</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="15">
+      <c r="A16" s="2">
+        <v>80</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="15">
+      <c r="A17" s="2">
+        <v>100</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="15">
+      <c r="A18" s="2">
+        <v>125</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="15">
+      <c r="A19" s="2">
+        <v>150</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9400" yWindow="0" windowWidth="17900" windowHeight="15560" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15620" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="86">
   <si>
     <t>Master-slave RKA</t>
   </si>
@@ -257,6 +257,33 @@
   <si>
     <t>20 -196.6</t>
   </si>
+  <si>
+    <t>(on 80 chunks)</t>
+  </si>
+  <si>
+    <t>125 - 296s</t>
+  </si>
+  <si>
+    <t>80 - 378</t>
+  </si>
+  <si>
+    <t>60 - 377s</t>
+  </si>
+  <si>
+    <t>150 - 243</t>
+  </si>
+  <si>
+    <t>40 - 370</t>
+  </si>
+  <si>
+    <t>MASTER SLAVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When we compare the mpiRK and Master/Slave algorithms, which both use a prehashed corpus, we see similar trends. In the speedup and efficiency, the mpiRK always performs better for each number of processes. This is probably because of two main reasons. 1) Master/Slave's send/recv communication slows it down, whereas mpiRK doesn't need to do send/recv. 2) Master/slave has one process that doesn't do any of the actual text checking; it is assigned to play the role of the master and distribute the text. </t>
+  </si>
+  <si>
+    <t>THIS IS MY ANALYSIS/ DESCRIPTION OF THE SPEEDUP, EFFICIENCY GRAPHS</t>
+  </si>
 </sst>
 </file>
 
@@ -310,12 +337,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -327,7 +360,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -405,15 +438,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="79">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -452,6 +488,7 @@
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -490,6 +527,7 @@
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -986,11 +1024,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="212588680"/>
-        <c:axId val="187218840"/>
+        <c:axId val="166935720"/>
+        <c:axId val="211241000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="212588680"/>
+        <c:axId val="166935720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1018,7 +1056,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187218840"/>
+        <c:crossAx val="211241000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1026,7 +1064,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187218840"/>
+        <c:axId val="211241000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1037,7 +1075,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212588680"/>
+        <c:crossAx val="166935720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1093,7 +1131,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1361,11 +1398,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="187184808"/>
-        <c:axId val="187145976"/>
+        <c:axId val="166952520"/>
+        <c:axId val="167457912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="187184808"/>
+        <c:axId val="166952520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1387,14 +1424,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187145976"/>
+        <c:crossAx val="167457912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1402,7 +1438,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187145976"/>
+        <c:axId val="167457912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1434,21 +1470,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187184808"/>
+        <c:crossAx val="166952520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1498,7 +1532,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1683,11 +1716,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="134855192"/>
-        <c:axId val="120418024"/>
+        <c:axId val="211236456"/>
+        <c:axId val="166971240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134855192"/>
+        <c:axId val="211236456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1709,14 +1742,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120418024"/>
+        <c:crossAx val="166971240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1724,7 +1756,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120418024"/>
+        <c:axId val="166971240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1747,21 +1779,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134855192"/>
+        <c:crossAx val="211236456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1806,7 +1836,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2047,11 +2076,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="141472152"/>
-        <c:axId val="141445912"/>
+        <c:axId val="166772968"/>
+        <c:axId val="210785480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="141472152"/>
+        <c:axId val="166772968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2073,14 +2102,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141445912"/>
+        <c:crossAx val="210785480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2088,7 +2116,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141445912"/>
+        <c:axId val="210785480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2120,21 +2148,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141472152"/>
+        <c:crossAx val="166772968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2184,7 +2210,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2416,11 +2441,542 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="140751608"/>
-        <c:axId val="140755240"/>
+        <c:axId val="187777272"/>
+        <c:axId val="167667016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140751608"/>
+        <c:axId val="187777272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="167667016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="167667016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="187777272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>mpiRK!$A$44:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mpiRK!$C$11:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>94.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>mpiRK!$A$44:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mpiRK!$C$44:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>127.606</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="167050088"/>
+        <c:axId val="167477624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="167050088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="167477624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="167477624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="167050088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Efficiency for mpiRK, 20MB Textlen, 150</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> word Patlen</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>mpiRK</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>mpiRK!$A$44:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mpiRK!$E$11:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.050998725031874</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.998586715122148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.018533772652389</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.822140957446808</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.632157464212679</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.489896988906498</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.406659815005139</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.261693121693122</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Master/Slave</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>mpiRK!$A$44:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mpiRK!$E$44:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.787392442</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.887283645</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.916417366</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.767695599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.600645624</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.465166667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.294867205</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24199422</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="125618280"/>
+        <c:axId val="141092904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="125618280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2449,7 +3005,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140755240"/>
+        <c:crossAx val="141092904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2457,7 +3013,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140755240"/>
+        <c:axId val="141092904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2467,7 +3023,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" vert="horz"/>
+              <a:bodyPr rot="-5400000" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2487,7 +3043,308 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140751608"/>
+        <c:crossAx val="125618280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speedup for mpiRK, 20MB Textlen,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 150 word Patlen</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>mpiRK</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>mpiRK!$A$44:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mpiRK!$D$11:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.254993625159371</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.985867151221482</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.37067545304778</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.88563829787234</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.92944785276074</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.1917591125198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.83247687564234</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.25396825396826</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Master/Slave</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>mpiRK!$A$44:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mpiRK!$D$44:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.936962212</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.872836454</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.32834732</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.70782396</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.03873745</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.21333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.85840059</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.29913295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="140227096"/>
+        <c:axId val="140228504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="140227096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="140228504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="140228504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="140227096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2800,11 +3657,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="119714520"/>
-        <c:axId val="120499656"/>
+        <c:axId val="166938920"/>
+        <c:axId val="130822312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119714520"/>
+        <c:axId val="166938920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2832,7 +3689,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120499656"/>
+        <c:crossAx val="130822312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2840,7 +3697,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120499656"/>
+        <c:axId val="130822312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2851,7 +3708,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119714520"/>
+        <c:crossAx val="166938920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3095,11 +3952,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="134233352"/>
-        <c:axId val="212664648"/>
+        <c:axId val="167161912"/>
+        <c:axId val="209918248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134233352"/>
+        <c:axId val="167161912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3132,7 +3989,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212664648"/>
+        <c:crossAx val="209918248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3140,7 +3997,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="212664648"/>
+        <c:axId val="209918248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3169,7 +4026,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134233352"/>
+        <c:crossAx val="167161912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3381,11 +4238,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131552504"/>
-        <c:axId val="211187128"/>
+        <c:axId val="140567192"/>
+        <c:axId val="141237208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="131552504"/>
+        <c:axId val="140567192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3413,7 +4270,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211187128"/>
+        <c:crossAx val="141237208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3421,7 +4278,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211187128"/>
+        <c:axId val="141237208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3450,7 +4307,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131552504"/>
+        <c:crossAx val="140567192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3591,11 +4448,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="211885128"/>
-        <c:axId val="211890616"/>
+        <c:axId val="187951816"/>
+        <c:axId val="166767672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="211885128"/>
+        <c:axId val="187951816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3623,7 +4480,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211890616"/>
+        <c:crossAx val="166767672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3631,7 +4488,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211890616"/>
+        <c:axId val="166767672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3642,7 +4499,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211885128"/>
+        <c:crossAx val="187951816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3693,6 +4550,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3794,11 +4652,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="167113768"/>
-        <c:axId val="188217864"/>
+        <c:axId val="167395320"/>
+        <c:axId val="166754712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="167113768"/>
+        <c:axId val="167395320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3820,13 +4678,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188217864"/>
+        <c:crossAx val="166754712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3834,7 +4693,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188217864"/>
+        <c:axId val="166754712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3857,13 +4716,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167113768"/>
+        <c:crossAx val="167395320"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3910,6 +4770,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4094,11 +4955,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="188231112"/>
-        <c:axId val="212809128"/>
+        <c:axId val="167409240"/>
+        <c:axId val="211185208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="188231112"/>
+        <c:axId val="167409240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4120,13 +4981,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212809128"/>
+        <c:crossAx val="211185208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4134,7 +4996,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="212809128"/>
+        <c:axId val="211185208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4157,19 +5019,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188231112"/>
+        <c:crossAx val="167409240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4214,6 +5078,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4398,11 +5263,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="186842648"/>
-        <c:axId val="186848072"/>
+        <c:axId val="167529160"/>
+        <c:axId val="3481112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="186842648"/>
+        <c:axId val="167529160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4424,13 +5289,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186848072"/>
+        <c:crossAx val="3481112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4438,7 +5304,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186848072"/>
+        <c:axId val="3481112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4461,19 +5327,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186842648"/>
+        <c:crossAx val="167529160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4604,11 +5472,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="134693000"/>
-        <c:axId val="134605432"/>
+        <c:axId val="211152456"/>
+        <c:axId val="166723976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134693000"/>
+        <c:axId val="211152456"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4636,7 +5504,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134605432"/>
+        <c:crossAx val="166723976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4644,7 +5512,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134605432"/>
+        <c:axId val="166723976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4673,7 +5541,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134693000"/>
+        <c:crossAx val="211152456"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5114,6 +5982,101 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6583,8 +7546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7488,6 +8451,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -8817,7 +9781,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -8971,11 +9934,11 @@
         <v>59.81</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" ref="D16:D23" si="0">B16/C16</f>
+        <f t="shared" ref="D16:D21" si="0">B16/C16</f>
         <v>8.1155325196455443</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" ref="E16:E23" si="1">D16/A16</f>
+        <f t="shared" ref="E16:E21" si="1">D16/A16</f>
         <v>0.81155325196455441</v>
       </c>
     </row>
@@ -9196,11 +10159,11 @@
         <v>57.84</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" ref="D32:D39" si="2">B32/C32</f>
+        <f t="shared" ref="D32:D37" si="2">B32/C32</f>
         <v>8.7987551867219906</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" ref="E32:E39" si="3">D32/A32</f>
+        <f t="shared" ref="E32:E37" si="3">D32/A32</f>
         <v>0.87987551867219904</v>
       </c>
     </row>
@@ -9526,7 +10489,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -9538,14 +10500,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
     <col min="3" max="3" width="19.1640625" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
@@ -9562,6 +10525,23 @@
       <c r="A2" t="s">
         <v>76</v>
       </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" s="2" t="s">
@@ -9626,7 +10606,9 @@
     </row>
     <row r="9" spans="1:5" ht="15">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -9642,89 +10624,383 @@
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3">
+        <v>494.6</v>
+      </c>
       <c r="C11" s="2">
         <v>94.12</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="2">
+        <f>B11/C11</f>
+        <v>5.2549936251593712</v>
+      </c>
+      <c r="E11" s="2">
+        <f>D11/A11</f>
+        <v>1.0509987250318742</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="15">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="B12" s="3">
+        <v>494.6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>49.53</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:D18" si="0">B12/C12</f>
+        <v>9.9858671512214823</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" ref="E12:E18" si="1">D12/A12</f>
+        <v>0.99858671512214825</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="15">
       <c r="A13" s="2">
         <v>20</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3">
+        <v>494.6</v>
+      </c>
       <c r="C13" s="2">
         <v>24.28</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>20.370675453047777</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0185337726523889</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="15">
       <c r="A14" s="2">
         <v>40</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="B14" s="3">
+        <v>494.6</v>
+      </c>
+      <c r="C14" s="2">
+        <v>15.04</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>32.88563829787234</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.82214095744680848</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="15">
       <c r="A15" s="2">
         <v>60</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="B15" s="3">
+        <v>494.6</v>
+      </c>
+      <c r="C15" s="2">
+        <v>13.04</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>37.929447852760738</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.63215746421267893</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="15">
       <c r="A16" s="2">
         <v>80</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="B16" s="3">
+        <v>494.6</v>
+      </c>
+      <c r="C16" s="2">
+        <v>12.62</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>39.191759112519811</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.48989698890649763</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="15">
       <c r="A17" s="2">
-        <v>100</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="B17" s="3">
+        <v>494.6</v>
+      </c>
+      <c r="C17" s="2">
+        <v>9.73</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>50.832476875642342</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.40665981500513876</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="15">
       <c r="A18" s="2">
+        <v>150</v>
+      </c>
+      <c r="B18" s="3">
+        <v>494.6</v>
+      </c>
+      <c r="C18" s="2">
+        <v>12.6</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>39.25396825396826</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.26169312169312176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15">
+      <c r="A37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" ht="15">
+      <c r="A38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15">
+      <c r="A39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="I40" s="5"/>
+      <c r="J40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15">
+      <c r="A41" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" ht="15">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" ht="15">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" ht="15">
+      <c r="A44" s="3">
+        <v>5</v>
+      </c>
+      <c r="B44" s="3">
+        <v>502.38</v>
+      </c>
+      <c r="C44" s="3">
+        <v>127.60599999999999</v>
+      </c>
+      <c r="D44" s="3">
+        <v>3.9369622120000001</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.78739244200000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15">
+      <c r="A45" s="3">
+        <v>10</v>
+      </c>
+      <c r="B45" s="3">
+        <v>502.38</v>
+      </c>
+      <c r="C45" s="3">
+        <v>56.62</v>
+      </c>
+      <c r="D45" s="3">
+        <v>8.8728364539999998</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.88728364500000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15">
+      <c r="A46" s="3">
+        <v>20</v>
+      </c>
+      <c r="B46" s="3">
+        <v>502.38</v>
+      </c>
+      <c r="C46" s="3">
+        <v>27.41</v>
+      </c>
+      <c r="D46" s="3">
+        <v>18.328347319999999</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.91641736600000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15">
+      <c r="A47" s="3">
+        <v>40</v>
+      </c>
+      <c r="B47" s="3">
+        <v>502.38</v>
+      </c>
+      <c r="C47" s="3">
+        <v>16.36</v>
+      </c>
+      <c r="D47" s="3">
+        <v>30.707823959999999</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.76769559899999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15">
+      <c r="A48" s="3">
+        <v>60</v>
+      </c>
+      <c r="B48" s="3">
+        <v>502.38</v>
+      </c>
+      <c r="C48" s="3">
+        <v>13.94</v>
+      </c>
+      <c r="D48" s="3">
+        <v>36.038737449999999</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.60064562399999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15">
+      <c r="A49" s="3">
+        <v>80</v>
+      </c>
+      <c r="B49" s="3">
+        <v>502.38</v>
+      </c>
+      <c r="C49" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="D49" s="3">
+        <v>37.213333329999998</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.46516666699999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15">
+      <c r="A50" s="3">
         <v>125</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="15">
-      <c r="A19" s="2">
+      <c r="B50" s="3">
+        <v>502.38</v>
+      </c>
+      <c r="C50" s="3">
+        <v>13.63</v>
+      </c>
+      <c r="D50" s="3">
+        <v>36.858400590000002</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.29486720500000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15">
+      <c r="A51" s="3">
         <v>150</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="B51" s="3">
+        <v>502.38</v>
+      </c>
+      <c r="C51" s="3">
+        <v>13.84</v>
+      </c>
+      <c r="D51" s="3">
+        <v>36.299132950000001</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.24199422000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
